--- a/project-05/onedrive-db/output/data_unida.xlsx
+++ b/project-05/onedrive-db/output/data_unida.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="Q5">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="Q7">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="Q10">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,738 @@
         </is>
       </c>
       <c r="Q11">
-        <v>173</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Juan Pérez</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>45</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E12" s="2">
+        <v>45280</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>I10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Antihipertensivos</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Estable</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Dra. Martínez</t>
+        </is>
+      </c>
+      <c r="J12" s="2">
+        <v>45301</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Hipertensión esencial (primaria)</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Cardiología</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>555-5678</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>dra.martinez@hospital.com</t>
+        </is>
+      </c>
+      <c r="Q12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ana López</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>32</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E13" s="2">
+        <v>45245</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>M54.5</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Analgésicos</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Mejorado</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Dr. Fernández</t>
+        </is>
+      </c>
+      <c r="J13" s="2">
+        <v>45265</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Providencia</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Dolor lumbar</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Neumología</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>555-8765</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>dr.fernandez@hospital.com</t>
+        </is>
+      </c>
+      <c r="Q13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Luis Ruiz</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E14" s="2">
+        <v>45347</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>E66.9</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Dieta y Ejercicio</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>En Tratamiento</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Dr. Sánchez</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Las Condes</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Obesidad, no especificada</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Reumatología</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>555-4321</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>dr.sanchez@hospital.com</t>
+        </is>
+      </c>
+      <c r="Q14">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Marta Díaz</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>37</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E15" s="2">
+        <v>45296</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>E11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Insulina</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Mejorado</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Dr. Ramírez</t>
+        </is>
+      </c>
+      <c r="J15" s="2">
+        <v>45316</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Ñuñoa</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Diabetes mellitus tipo 2</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Nefrología</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>555-3344</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>dr.ramirez@hospital.com</t>
+        </is>
+      </c>
+      <c r="Q15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pedro Gómez</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E16" s="2">
+        <v>45275</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Diuréticos</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Estable</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Dra. Rodríguez</t>
+        </is>
+      </c>
+      <c r="J16" s="2">
+        <v>45301</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Vitacura</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Insuficiencia cardiaca</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Cardiología</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>555-1122</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>dra.rodriguez@hospital.com</t>
+        </is>
+      </c>
+      <c r="Q16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Laura Cruz</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>60</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E17" s="2">
+        <v>45371</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>E78.5</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Estatinas</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>En Tratamiento</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Dr. Hernández</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>La Florida</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Hiperlipidemia, no especificada</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Endocrinología</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>555-7788</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>dr.hernandez@hospital.com</t>
+        </is>
+      </c>
+      <c r="Q17">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Carlos Vela</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>22</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E18" s="2">
+        <v>45332</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>J20.9</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Antibióticos</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Mejorado</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Dr. Jiménez</t>
+        </is>
+      </c>
+      <c r="J18" s="2">
+        <v>45350</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Puente Alto</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Bronquitis aguda, no especificada</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sofía Rey</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>47</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E19" s="2">
+        <v>45376</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>K21.9</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Inhibidores de la Bomba de Protones</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Estable</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Dr. Torres</t>
+        </is>
+      </c>
+      <c r="J19" s="2">
+        <v>45392</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Maipú</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Enfermedad por reflujo gastroesofágico sin esofagitis</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Hematología</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>555-6677</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>dr.torres@hospital.com</t>
+        </is>
+      </c>
+      <c r="Q19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Diego Mora</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>39</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E20" s="2">
+        <v>45321</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>F32.9</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Antidepresivos</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>En Tratamiento</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Dra. Gómez</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>La Reina</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Episodio depresivo, no especificado</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q20">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Rosa Ponce</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>55</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E21" s="2">
+        <v>45427</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>I25.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Beta Bloqueadores</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Mejorado</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Dr. Sánchez</t>
+        </is>
+      </c>
+      <c r="J21" s="2">
+        <v>45448</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Peñalolén</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Aterosclerosis de arteria coronaria, sin angina de pecho</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Reumatología</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>555-4321</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>dr.sanchez@hospital.com</t>
+        </is>
+      </c>
+      <c r="Q21">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
